--- a/DICCIONARIO DE DATOS1.xlsx
+++ b/DICCIONARIO DE DATOS1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mus1\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\bases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1419,8 +1419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D77"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C79" sqref="C79"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1428,7 +1428,7 @@
     <col min="1" max="1" width="32" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
     <col min="3" max="3" width="33.28515625" customWidth="1"/>
-    <col min="4" max="4" width="74.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="93.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
